--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Byron Caices\Desktop\University\Paradigmas-2023\lab1_20915795_Caices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28212AE9-52FC-4780-9052-5E5992057215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7ACA47-A68C-41FF-AB83-6672348E1A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D40AF8CF-A91A-4DB0-B9B5-1D8111A321E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Requerimientos Funcionales</t>
   </si>
@@ -120,6 +120,27 @@
   </si>
   <si>
     <t>Alcance(ptos)</t>
+  </si>
+  <si>
+    <t>Requerimientos No Funcionales:</t>
+  </si>
+  <si>
+    <t>Autoevaluación</t>
+  </si>
+  <si>
+    <t>Lenguaje</t>
+  </si>
+  <si>
+    <t>Versión</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>No variables</t>
+  </si>
+  <si>
+    <t>Documentación</t>
   </si>
 </sst>
 </file>
@@ -523,16 +544,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398A3F07-6334-407E-B43F-14DB355FF90C}">
-  <dimension ref="B3:D28"/>
+  <dimension ref="B3:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -676,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -820,6 +841,86 @@
       </c>
       <c r="D28" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Byron Caices\Desktop\University\Paradigmas-2023\lab1_20915795_Caices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7ACA47-A68C-41FF-AB83-6672348E1A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D87B9CC-92E8-4892-B954-137E6879E0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D40AF8CF-A91A-4DB0-B9B5-1D8111A321E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -547,7 +548,7 @@
   <dimension ref="B3:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F26" sqref="F26:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +720,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -730,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -853,9 +854,7 @@
       <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -865,7 +864,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -876,7 +875,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -887,7 +886,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -898,7 +897,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -909,7 +908,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -920,10 +919,24 @@
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C964213-C9F8-43C1-8859-CF3A088D3177}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>